--- a/data-raw/bryan.maize.uniformity.xlsx
+++ b/data-raw/bryan.maize.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\0uniformity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCE83A7-96B0-497F-B883-14DCA27862D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D53786-DD56-42E0-B442-EA37BF2B3DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10490" yWindow="570" windowWidth="13350" windowHeight="7890" activeTab="1" xr2:uid="{0918D0A7-5B3B-4EE8-B44E-25495D5ECADB}"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" activeTab="1" xr2:uid="{0918D0A7-5B3B-4EE8-B44E-25495D5ECADB}"/>
   </bookViews>
   <sheets>
     <sheet name="table22" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,16 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,16 +98,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -129,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -169,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -275,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -417,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2682,1106 +2681,1106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="6">
+      <c r="A1" s="2">
         <v>51</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="5">
         <v>8.86</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>9.83</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="5">
         <v>11.13</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="5">
         <v>11.77</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="5">
         <v>10.09</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="5">
         <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="2">
         <v>52</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>9.39</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>9.93</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>12.33</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>12.42</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>10.57</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>10.57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="2">
         <v>53</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>9.89</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>11.28</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>12.46</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>13.4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>11.43</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>11.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="2">
         <v>54</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>7.93</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>9.51</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>12.27</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>11.96</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>9.9</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>10.75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="2">
         <v>55</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>10.220000000000001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>14.25</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>12.34</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>8.73</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>10.28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="2">
         <v>56</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>10.77</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>10.210000000000001</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>13.75</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>12.51</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>10.36</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>10.36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="2">
         <v>57</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>9.19</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>9.84</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>12.39</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>12.65</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>10.78</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>11.47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="2">
         <v>58</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>9.34</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>9.41</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>13.03</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>11.97</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>10.1</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>11.81</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>59</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>10.66</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>12.99</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>12.59</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>10.119999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>9.92</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>60</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>8.7100000000000009</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>13.54</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>13.4</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>11.88</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>12.33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>61</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>7.9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>10.45</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>12.14</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>11.41</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>9.85</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>10.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>62</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>8.1300000000000008</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>9.81</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>12.92</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>13.04</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>10.98</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>11.49</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>63</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>8.8699999999999992</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>10.17</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>11.22</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>12.61</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>11.15</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>9.9499999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>64</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>8.5299999999999994</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>10.01</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>12</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>12.99</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>11.68</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>10.73</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="2">
         <v>65</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>9.61</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>9.24</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>11.82</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>13.76</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>11.73</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>11.2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>66</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>9.5299999999999994</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>9.2200000000000006</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>11.9</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>11.94</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>11.7</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>13.04</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>67</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="5">
         <v>8.3800000000000008</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>8.69</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>11.97</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>13.25</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>12.23</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>11.06</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>68</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="5">
         <v>9.23</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>12.25</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>11.93</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>11.19</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="5">
         <v>11.26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>69</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="5">
         <v>7.28</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>10.98</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>11.44</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="5">
         <v>8.58</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>70</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="5">
         <v>8.23</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>9.7100000000000009</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>10.46</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>13.25</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>11.67</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="5">
         <v>12.24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="2">
         <v>71</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>7.19</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>9.93</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>12.72</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>12.37</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>11.31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <v>72</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>7.46</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>7.1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>8.66</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>12.44</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>10.81</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="A23" s="2">
         <v>73</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>6.87</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>7.66</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>8.5299999999999994</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>13.88</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>11.36</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>11.37</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <v>74</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>6.8</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>7.25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>9.4</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>13.5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>11.46</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>10.97</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="A25" s="2">
         <v>75</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="5">
         <v>7.11</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>6.54</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>8.44</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>11.51</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>10.52</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>9.93</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+      <c r="A26" s="2">
         <v>76</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="5">
         <v>7.95</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="5">
         <v>7.26</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>8.33</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>11</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>10.93</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>10.77</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+      <c r="A27" s="2">
         <v>77</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>7.12</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>7.05</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>9.48</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>11.06</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>11.17</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>11.35</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+      <c r="A28" s="2">
         <v>78</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="5">
         <v>7.5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="5">
         <v>6.89</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>8.82</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>11.08</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <v>10.54</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <v>10.51</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="A29" s="2">
         <v>79</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="5">
         <v>8.2200000000000006</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>7.52</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>9.76</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>12.16</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>11.33</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+      <c r="A30" s="2">
         <v>80</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>8.91</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <v>8.1300000000000008</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>9.56</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>11.05</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="5">
         <v>11.41</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="5">
         <v>10.23</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+      <c r="A31" s="2">
         <v>81</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>7.97</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <v>8.64</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>9.24</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>11.69</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>10.029999999999999</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>11.57</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+      <c r="A32" s="2">
         <v>82</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>8.73</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <v>7.32</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>8.91</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>12.17</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>10.3</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="5">
         <v>10.84</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+      <c r="A33" s="2">
         <v>83</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>7.85</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <v>7.22</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>9.32</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>9.5500000000000007</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>9.76</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <v>10.78</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+      <c r="A34" s="2">
         <v>84</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="5">
         <v>7.71</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="5">
         <v>7.35</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>9.1199999999999992</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>10.7</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>9.31</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="5">
         <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+      <c r="A35" s="2">
         <v>85</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>7.32</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="5">
         <v>5.56</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>9.16</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>9.76</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="5">
         <v>9.94</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="5">
         <v>11.48</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+      <c r="A36" s="2">
         <v>86</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="5">
         <v>9.66</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="5">
         <v>8.19</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>10.24</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>11.19</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="5">
         <v>10.38</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="5">
         <v>11.97</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+      <c r="A37" s="2">
         <v>87</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="5">
         <v>9.14</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="5">
         <v>8.39</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>9.19</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>10.29</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>10.14</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <v>12.52</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+      <c r="A38" s="2">
         <v>88</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="5">
         <v>9.48</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="5">
         <v>7.87</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="5">
         <v>9.86</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>9.67</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>9.4700000000000006</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="5">
         <v>11.02</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="A39" s="2">
         <v>89</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="5">
         <v>8.94</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="5">
         <v>6.78</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>8.65</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>9.99</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>10.34</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="5">
         <v>10.96</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+      <c r="A40" s="2">
         <v>90</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="5">
         <v>8.44</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="5">
         <v>8.27</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="5">
         <v>9.9600000000000009</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>10.210000000000001</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <v>12.12</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="5">
         <v>12.03</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+      <c r="A41" s="2">
         <v>91</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="5">
         <v>9.3699999999999992</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="5">
         <v>9.56</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>10.18</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>10.18</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>10.84</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="5">
         <v>11.29</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+      <c r="A42" s="2">
         <v>92</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="5">
         <v>6.98</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="5">
         <v>9.5299999999999994</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="5">
         <v>10.130000000000001</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>9.0299999999999994</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="5">
         <v>10.130000000000001</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="5">
         <v>12.48</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+      <c r="A43" s="2">
         <v>93</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="5">
         <v>8.9600000000000009</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="5">
         <v>8.89</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="5">
         <v>10.81</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>10.87</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="5">
         <v>10.75</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="5">
         <v>12.36</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+      <c r="A44" s="2">
         <v>94</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="5">
         <v>8.65</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="5">
         <v>9.58</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>10.130000000000001</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>8.84</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="5">
         <v>10.61</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="5">
         <v>10.82</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+      <c r="A45" s="2">
         <v>95</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>10.220000000000001</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="5">
         <v>8.59</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="5">
         <v>10.97</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>10.98</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <v>10.95</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="5">
         <v>11.1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+      <c r="A46" s="2">
         <v>96</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>8.86</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="5">
         <v>9.74</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>9.94</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>9.65</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="5">
         <v>8.75</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="5">
         <v>11.53</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+      <c r="A47" s="2">
         <v>97</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="5">
         <v>9.67</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="5">
         <v>9.16</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="5">
         <v>9.57</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>10.07</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>8.74</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>11.62</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+      <c r="A48" s="2">
         <v>98</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="5">
         <v>7.79</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="5">
         <v>10.18</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="5">
         <v>8.7799999999999994</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>10.66</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>10.87</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="5">
         <v>10.18</v>
       </c>
     </row>
@@ -3812,7 +3811,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="5">
+      <c r="A1" s="3">
         <v>3</v>
       </c>
       <c r="B1" s="4">
@@ -3835,7 +3834,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -3858,7 +3857,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -3881,7 +3880,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -3904,7 +3903,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="4">
@@ -3927,7 +3926,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>8</v>
       </c>
       <c r="B6" s="4">
@@ -3950,7 +3949,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="4">
@@ -3973,7 +3972,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
       <c r="B8" s="4">
@@ -3996,7 +3995,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>11</v>
       </c>
       <c r="B9" s="4">
@@ -4019,7 +4018,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>12</v>
       </c>
       <c r="B10" s="4">
@@ -4042,7 +4041,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>13</v>
       </c>
       <c r="B11" s="4">
@@ -4065,7 +4064,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>14</v>
       </c>
       <c r="B12" s="4">
@@ -4088,7 +4087,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -4111,7 +4110,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>16</v>
       </c>
       <c r="B14" s="4">
@@ -4134,7 +4133,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>17</v>
       </c>
       <c r="B15" s="4">
@@ -4157,7 +4156,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>18</v>
       </c>
       <c r="B16" s="4">
@@ -4180,7 +4179,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>19</v>
       </c>
       <c r="B17" s="4">
@@ -4203,7 +4202,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>20</v>
       </c>
       <c r="B18" s="4">
@@ -4226,7 +4225,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>21</v>
       </c>
       <c r="B19" s="4">
@@ -4249,7 +4248,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>22</v>
       </c>
       <c r="B20" s="4">
@@ -4272,7 +4271,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>23</v>
       </c>
       <c r="B21" s="4">
@@ -4295,7 +4294,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>24</v>
       </c>
       <c r="B22" s="4">
@@ -4318,7 +4317,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>25</v>
       </c>
       <c r="B23" s="4">
@@ -4341,7 +4340,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>26</v>
       </c>
       <c r="B24" s="4">
@@ -4364,7 +4363,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>27</v>
       </c>
       <c r="B25" s="4">
@@ -4387,7 +4386,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>28</v>
       </c>
       <c r="B26" s="4">
@@ -4410,7 +4409,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>29</v>
       </c>
       <c r="B27" s="4">
@@ -4433,7 +4432,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>30</v>
       </c>
       <c r="B28" s="4">
@@ -4456,7 +4455,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>31</v>
       </c>
       <c r="B29" s="4">
@@ -4479,7 +4478,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>32</v>
       </c>
       <c r="B30" s="4">
@@ -4502,7 +4501,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>33</v>
       </c>
       <c r="B31" s="4">
@@ -4525,7 +4524,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>34</v>
       </c>
       <c r="B32" s="4">
@@ -4548,7 +4547,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>35</v>
       </c>
       <c r="B33" s="4">
@@ -4571,7 +4570,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>36</v>
       </c>
       <c r="B34" s="4">
@@ -4594,7 +4593,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>37</v>
       </c>
       <c r="B35" s="4">
@@ -4617,7 +4616,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>38</v>
       </c>
       <c r="B36" s="4">
@@ -4640,7 +4639,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>39</v>
       </c>
       <c r="B37" s="4">
@@ -4663,7 +4662,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>40</v>
       </c>
       <c r="B38" s="4">
@@ -4686,7 +4685,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>41</v>
       </c>
       <c r="B39" s="4">
@@ -4709,7 +4708,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>42</v>
       </c>
       <c r="B40" s="4">
@@ -4732,7 +4731,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>43</v>
       </c>
       <c r="B41" s="4">
@@ -4755,7 +4754,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>44</v>
       </c>
       <c r="B42" s="4">
@@ -4778,7 +4777,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>45</v>
       </c>
       <c r="B43" s="4">
@@ -4801,7 +4800,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>46</v>
       </c>
       <c r="B44" s="4">
@@ -4824,7 +4823,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>47</v>
       </c>
       <c r="B45" s="4">
@@ -4847,7 +4846,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>48</v>
       </c>
       <c r="B46" s="4">
@@ -4870,7 +4869,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>49</v>
       </c>
       <c r="B47" s="4">
@@ -4893,7 +4892,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>50</v>
       </c>
       <c r="B48" s="4">
@@ -4941,7 +4940,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="5">
+      <c r="A1" s="3">
         <v>3</v>
       </c>
       <c r="B1" s="4">
@@ -4964,7 +4963,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -4987,7 +4986,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -5010,7 +5009,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -5033,7 +5032,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="4">
@@ -5056,7 +5055,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>8</v>
       </c>
       <c r="B6" s="4">
@@ -5079,7 +5078,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="4">
@@ -5102,7 +5101,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
       <c r="B8" s="4">
@@ -5125,7 +5124,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>11</v>
       </c>
       <c r="B9" s="4">
@@ -5148,7 +5147,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>12</v>
       </c>
       <c r="B10" s="4">
@@ -5171,7 +5170,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>13</v>
       </c>
       <c r="B11" s="4">
@@ -5194,7 +5193,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>14</v>
       </c>
       <c r="B12" s="4">
@@ -5217,7 +5216,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -5240,7 +5239,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>16</v>
       </c>
       <c r="B14" s="4">
@@ -5263,7 +5262,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>17</v>
       </c>
       <c r="B15" s="4">
@@ -5286,7 +5285,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>18</v>
       </c>
       <c r="B16" s="4">
@@ -5309,7 +5308,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>19</v>
       </c>
       <c r="B17" s="4">
@@ -5332,7 +5331,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>20</v>
       </c>
       <c r="B18" s="4">
@@ -5355,7 +5354,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>21</v>
       </c>
       <c r="B19" s="4">
@@ -5378,7 +5377,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>22</v>
       </c>
       <c r="B20" s="4">
@@ -5401,7 +5400,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>23</v>
       </c>
       <c r="B21" s="4">
@@ -5424,7 +5423,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>24</v>
       </c>
       <c r="B22" s="4">
@@ -5447,7 +5446,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>25</v>
       </c>
       <c r="B23" s="4">
@@ -5470,7 +5469,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>26</v>
       </c>
       <c r="B24" s="4">
@@ -5493,7 +5492,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>27</v>
       </c>
       <c r="B25" s="4">
@@ -5516,7 +5515,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>28</v>
       </c>
       <c r="B26" s="4">
@@ -5539,7 +5538,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>29</v>
       </c>
       <c r="B27" s="4">
@@ -5562,7 +5561,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>30</v>
       </c>
       <c r="B28" s="4">
@@ -5585,7 +5584,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>31</v>
       </c>
       <c r="B29" s="4">
@@ -5608,7 +5607,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>32</v>
       </c>
       <c r="B30" s="4">
@@ -5631,7 +5630,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>33</v>
       </c>
       <c r="B31" s="4">
@@ -5654,7 +5653,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>34</v>
       </c>
       <c r="B32" s="4">
@@ -5677,7 +5676,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>35</v>
       </c>
       <c r="B33" s="4">
@@ -5700,7 +5699,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>36</v>
       </c>
       <c r="B34" s="4">
@@ -5723,7 +5722,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>37</v>
       </c>
       <c r="B35" s="4">
@@ -5746,7 +5745,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>38</v>
       </c>
       <c r="B36" s="4">
@@ -5769,7 +5768,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>39</v>
       </c>
       <c r="B37" s="4">
@@ -5792,7 +5791,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>40</v>
       </c>
       <c r="B38" s="4">
@@ -5815,7 +5814,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>41</v>
       </c>
       <c r="B39" s="4">
@@ -5838,7 +5837,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>42</v>
       </c>
       <c r="B40" s="4">
@@ -5861,7 +5860,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>43</v>
       </c>
       <c r="B41" s="4">
@@ -5884,7 +5883,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>44</v>
       </c>
       <c r="B42" s="4">
@@ -5907,7 +5906,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>45</v>
       </c>
       <c r="B43" s="4">
@@ -5930,7 +5929,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>46</v>
       </c>
       <c r="B44" s="4">
@@ -5953,7 +5952,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>47</v>
       </c>
       <c r="B45" s="4">
@@ -5976,7 +5975,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>48</v>
       </c>
       <c r="B46" s="4">
@@ -5999,7 +5998,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>49</v>
       </c>
       <c r="B47" s="4">
@@ -6022,7 +6021,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>50</v>
       </c>
       <c r="B48" s="4">
@@ -6070,7 +6069,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="5">
+      <c r="A1" s="3">
         <v>3</v>
       </c>
       <c r="B1" s="4">
@@ -6093,7 +6092,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>4</v>
       </c>
       <c r="B2" s="4">
@@ -6116,7 +6115,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>5</v>
       </c>
       <c r="B3" s="4">
@@ -6139,7 +6138,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>6</v>
       </c>
       <c r="B4" s="4">
@@ -6162,7 +6161,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>7</v>
       </c>
       <c r="B5" s="4">
@@ -6185,7 +6184,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>8</v>
       </c>
       <c r="B6" s="4">
@@ -6208,7 +6207,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9</v>
       </c>
       <c r="B7" s="4">
@@ -6231,7 +6230,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10</v>
       </c>
       <c r="B8" s="4">
@@ -6254,7 +6253,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>11</v>
       </c>
       <c r="B9" s="4">
@@ -6277,7 +6276,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>12</v>
       </c>
       <c r="B10" s="4">
@@ -6300,7 +6299,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>13</v>
       </c>
       <c r="B11" s="4">
@@ -6323,7 +6322,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>14</v>
       </c>
       <c r="B12" s="4">
@@ -6346,7 +6345,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>15</v>
       </c>
       <c r="B13" s="4">
@@ -6369,7 +6368,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>16</v>
       </c>
       <c r="B14" s="4">
@@ -6392,7 +6391,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>17</v>
       </c>
       <c r="B15" s="4">
@@ -6415,7 +6414,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>18</v>
       </c>
       <c r="B16" s="4">
@@ -6438,7 +6437,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>19</v>
       </c>
       <c r="B17" s="4">
@@ -6461,7 +6460,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>20</v>
       </c>
       <c r="B18" s="4">
@@ -6484,7 +6483,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>21</v>
       </c>
       <c r="B19" s="4">
@@ -6507,7 +6506,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>22</v>
       </c>
       <c r="B20" s="4">
@@ -6530,7 +6529,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>23</v>
       </c>
       <c r="B21" s="4">
@@ -6553,7 +6552,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>24</v>
       </c>
       <c r="B22" s="4">
@@ -6576,7 +6575,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>25</v>
       </c>
       <c r="B23" s="4">
@@ -6599,7 +6598,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>26</v>
       </c>
       <c r="B24" s="4">
@@ -6622,7 +6621,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>27</v>
       </c>
       <c r="B25" s="4">
@@ -6645,7 +6644,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>28</v>
       </c>
       <c r="B26" s="4">
@@ -6668,7 +6667,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>29</v>
       </c>
       <c r="B27" s="4">
@@ -6691,7 +6690,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>30</v>
       </c>
       <c r="B28" s="4">
@@ -6714,7 +6713,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>31</v>
       </c>
       <c r="B29" s="4">
@@ -6737,7 +6736,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>32</v>
       </c>
       <c r="B30" s="4">
@@ -6760,7 +6759,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>33</v>
       </c>
       <c r="B31" s="4">
@@ -6783,7 +6782,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>34</v>
       </c>
       <c r="B32" s="4">
@@ -6806,7 +6805,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>35</v>
       </c>
       <c r="B33" s="4">
@@ -6829,7 +6828,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>36</v>
       </c>
       <c r="B34" s="4">
@@ -6852,7 +6851,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>37</v>
       </c>
       <c r="B35" s="4">
@@ -6875,7 +6874,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>38</v>
       </c>
       <c r="B36" s="4">
@@ -6898,7 +6897,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>39</v>
       </c>
       <c r="B37" s="4">
@@ -6921,7 +6920,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>40</v>
       </c>
       <c r="B38" s="4">
@@ -6944,7 +6943,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>41</v>
       </c>
       <c r="B39" s="4">
@@ -6967,7 +6966,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>42</v>
       </c>
       <c r="B40" s="4">
@@ -6990,7 +6989,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>43</v>
       </c>
       <c r="B41" s="4">
@@ -7013,7 +7012,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>44</v>
       </c>
       <c r="B42" s="4">
@@ -7036,7 +7035,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>45</v>
       </c>
       <c r="B43" s="4">
@@ -7059,7 +7058,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>46</v>
       </c>
       <c r="B44" s="4">
@@ -7082,7 +7081,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>47</v>
       </c>
       <c r="B45" s="4">
@@ -7105,7 +7104,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>48</v>
       </c>
       <c r="B46" s="4">
@@ -7128,7 +7127,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>49</v>
       </c>
       <c r="B47" s="4">
@@ -7151,7 +7150,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>50</v>
       </c>
       <c r="B48" s="4">
